--- a/Konstruktion/V10/Teileliste.xlsx
+++ b/Konstruktion/V10/Teileliste.xlsx
@@ -381,20 +381,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +713,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="12" sqref="D27 D23 D19 D15 D14 D11 D8 D7 D6 D5 D4 D3 D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1154,12 +1154,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
